--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3642468.829743295</v>
+        <v>3640581.248226891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607888.605465023</v>
+        <v>141609.6795078908</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8137210.739177636</v>
+        <v>8137210.739177635</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.44871811097143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>126.7632886126198</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>65.2453208166456</v>
       </c>
       <c r="F5" t="n">
-        <v>81.42331421331806</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>205.3743261851591</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8950372953914</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>138.1056888072237</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.908481403326303</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051979</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385006</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>80.83119524460949</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056512</v>
+        <v>64.02545868683356</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>148.1799067711596</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>77.74146402679852</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>107.1555119083916</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>57.56452900498737</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>188.4590648403939</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>194.3432279162735</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>43.9718654901442</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>137.1381469898889</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.1150787952338</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>554.1525618548221</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D5" t="n">
-        <v>554.1525618548221</v>
+        <v>544.7566551326393</v>
       </c>
       <c r="E5" t="n">
-        <v>554.1525618548221</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4744,25 +4744,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>261.391796148808</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>261.391796148808</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>1754.189055519933</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548717</v>
+        <v>1380.723297258854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548717</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>721.150720162671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>573.2376265802778</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>436.8967109626376</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1050.793780719526</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111988</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245378</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245378</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245378</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>809.295358296325</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>581.3058073983077</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>360.5132282547776</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,13 +5270,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227913</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169044</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336709</v>
+        <v>330.8254548799438</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750118</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.169691290395</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980063</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1420.389539217702</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1131.26090043126</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>876.5764122253729</v>
+        <v>933.2366688293926</v>
       </c>
       <c r="W19" t="n">
-        <v>587.1592421884123</v>
+        <v>643.8194987924319</v>
       </c>
       <c r="X19" t="n">
-        <v>359.169691290395</v>
+        <v>415.8299478944146</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.169691290395</v>
+        <v>415.8299478944146</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>151.3669135485177</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>151.3669135485177</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>381.3300194168669</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N21" t="n">
-        <v>1479.482307609636</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891788</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891788</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>205.454982276843</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>758.0126656629485</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>537.2200865194184</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542125</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542125</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542125</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542125</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279823</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0115451844522</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>381.3300194168668</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M27" t="n">
-        <v>1149.698165809328</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799928</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013487</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075996</v>
+        <v>644.1080300429512</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>644.1080300429512</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028589</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578666</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.2377347729981</v>
+        <v>439.5324299542192</v>
       </c>
       <c r="C31" t="n">
-        <v>360.062417126462</v>
+        <v>395.1164042065988</v>
       </c>
       <c r="D31" t="n">
-        <v>360.062417126462</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>764.1570481840264</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.1253343218671</v>
+        <v>565.420029503088</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525396</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,40 +6923,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,16 +7096,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>412.6886509252902</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860497</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,34 +7585,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2346.338691000034</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,7 +7786,7 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
@@ -7795,22 +7795,22 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>269.8813202630215</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417969</v>
+        <v>148.4956457463782</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>302.7104305462887</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.60276740195968</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338594</v>
+        <v>161.6841967022036</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65207341077769</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>143.8060970315907</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>39.27845073817757</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>87.85651901794387</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>33.08849621799538</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>31.36642747276369</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>68.07169897992651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>33.36825177059114</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542234</v>
+        <v>711938.7403542235</v>
       </c>
       <c r="L2" t="n">
+        <v>718411.548631249</v>
+      </c>
+      <c r="M2" t="n">
         <v>718411.5486312488</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>718411.5486312486</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>718411.5486312489</v>
       </c>
-      <c r="O2" t="n">
-        <v>718411.5486312488</v>
-      </c>
       <c r="P2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312489</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086662</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905759286</v>
+        <v>787.7936905759108</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.793690575915</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477234</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732489</v>
+        <v>-93474.547827325</v>
       </c>
       <c r="C6" t="n">
+        <v>496493.3313872193</v>
+      </c>
+      <c r="D6" t="n">
         <v>496493.3313872194</v>
       </c>
-      <c r="D6" t="n">
-        <v>496493.3313872188</v>
-      </c>
       <c r="E6" t="n">
-        <v>66365.69842480267</v>
+        <v>66268.23929882947</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.7349016983</v>
+        <v>591428.275775726</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016982</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.734901698</v>
+        <v>591428.275775726</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016981</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091051</v>
+        <v>415005.0565831331</v>
       </c>
       <c r="K6" t="n">
-        <v>552195.5103163824</v>
+        <v>552177.0165784482</v>
       </c>
       <c r="L6" t="n">
         <v>587146.9550784604</v>
@@ -26555,13 +26555,13 @@
         <v>462688.8466454897</v>
       </c>
       <c r="N6" t="n">
+        <v>597489.8618793269</v>
+      </c>
+      <c r="O6" t="n">
         <v>597489.8618793271</v>
       </c>
-      <c r="O6" t="n">
-        <v>597489.861879327</v>
-      </c>
       <c r="P6" t="n">
-        <v>553327.2565764812</v>
+        <v>553327.2565764814</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.898118555597943e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.898118555597943e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.898118555597943e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.7892205450822</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>19.90190336753807</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>316.6850492556161</v>
       </c>
       <c r="F5" t="n">
-        <v>325.4527315283934</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>81.1486721514319</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.8388043680892</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>211.1352799101893</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7069916148861</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>1.30232927890104e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.003878819152886e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,10 +28564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31379,10 +31379,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31841,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>48.48571443651716</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>43.17892664331839</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,25 +32069,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32318,31 +32318,31 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>222.5535176895564</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.63419460415</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>55.44338131437089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>378.8254161078719</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>211.1801409386341</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,16 +33029,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>54.69678998811287</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>349.1773157277758</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33272,25 +33272,25 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,34 +33974,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>192.0343428355222</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>199.2022664297722</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.202266429772</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>175.1095124747368</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>391.1795889035386</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35732,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>127.2850758185771</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>546.124547517538</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116981</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303342</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>54.69678998811303</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O21" t="n">
-        <v>630.091490940157</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>462.4462157709191</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>672.7483455557574</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197785</v>
+        <v>6.361611824359838</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>629.2763168486817</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>171.3687184629554</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>318.6581408737418</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>431.4882319533572</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>269.2977800795996</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
